--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59138,7 +59138,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6493865741</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>60879</v>
@@ -59159,6 +59159,32 @@
         <v>1001</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6494444444</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>62690</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>0.796000003814697</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>0.801999986171722</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>0.797999978065491</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="1032">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3105,6 +3105,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.791999995708466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.796000003814697</t>
   </si>
 </sst>
 </file>
@@ -59164,7 +59167,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.6494444444</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>62690</v>
@@ -59185,6 +59188,32 @@
         <v>1029</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6353819444</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>10139</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>0.796000003814697</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>0.796000003814697</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59193,7 +59193,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6353819444</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>10139</v>
@@ -59214,6 +59214,32 @@
         <v>1031</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6078587963</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>596</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>0.794000029563904</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>0.794000029563904</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>0.796000003814697</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59219,7 +59219,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6078587963</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>596</v>
@@ -59240,6 +59240,32 @@
         <v>1031</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.5479513889</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>28000</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>0.797999978065491</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>0.797999978065491</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59245,7 +59245,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.5479513889</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>28000</v>
@@ -59266,6 +59266,32 @@
         <v>1029</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.4779282407</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>5110</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>0.801999986171722</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>0.794000029563904</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>0.801999986171722</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>0.797999978065491</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59271,7 +59271,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.4779282407</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>5110</v>
@@ -59292,6 +59292,32 @@
         <v>1029</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.6345138889</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>47100</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>0.797999978065491</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>0.797999978065491</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59297,27 +59297,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6345138889</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
+        <v>3203</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>0.796000003814697</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>0.796000003814697</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
         <v>47100</v>
       </c>
-      <c r="C2149" t="n">
+      <c r="C2150" t="n">
         <v>0.805999994277954</v>
       </c>
-      <c r="D2149" t="n">
+      <c r="D2150" t="n">
         <v>0.797999978065491</v>
       </c>
-      <c r="E2149" t="n">
+      <c r="E2150" t="n">
         <v>0.797999978065491</v>
       </c>
-      <c r="F2149" t="n">
+      <c r="F2150" t="n">
         <v>0.800000011920929</v>
       </c>
-      <c r="G2149" t="s">
+      <c r="G2150" t="s">
         <v>1001</v>
       </c>
-      <c r="H2149" t="s">
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.4401851852</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>8391</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59349,7 +59349,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.4401851852</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>8391</v>
@@ -59370,6 +59370,32 @@
         <v>1001</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6257291667</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>3973</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>0.801999986171722</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="1033">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3108,6 +3108,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.796000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.804000020027161</t>
   </si>
 </sst>
 </file>
@@ -59375,7 +59378,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6257291667</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>3973</v>
@@ -59396,6 +59399,32 @@
         <v>1001</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6104976852</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>30070</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59404,7 +59404,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6104976852</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>30070</v>
@@ -59425,6 +59425,32 @@
         <v>1032</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6494560185</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>3743</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>0.801999986171722</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="1034">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3111,6 +3111,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.804000020027161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.805999994277954</t>
   </si>
 </sst>
 </file>
@@ -59430,7 +59433,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6494560185</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>3743</v>
@@ -59451,6 +59454,32 @@
         <v>1032</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6277430556</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>15136</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59459,13 +59459,13 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.6277430556</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>15136</v>
       </c>
       <c r="C2155" t="n">
-        <v>0.805999994277954</v>
+        <v>0.810000002384186</v>
       </c>
       <c r="D2155" t="n">
         <v>0.804000020027161</v>
@@ -59480,6 +59480,32 @@
         <v>1033</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6496412037</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>220922</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59485,7 +59485,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6496412037</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>220922</v>
@@ -59506,6 +59506,32 @@
         <v>1033</v>
       </c>
       <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6496412037</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>220762</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59511,7 +59511,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6496412037</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>220762</v>
@@ -59532,6 +59532,32 @@
         <v>1033</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.4415509259</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>1740</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59537,19 +59537,19 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.4415509259</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>1740</v>
       </c>
       <c r="C2158" t="n">
-        <v>0.808000028133392</v>
+        <v>0.810000002384186</v>
       </c>
       <c r="D2158" t="n">
         <v>0.804000020027161</v>
       </c>
       <c r="E2158" t="n">
-        <v>0.804000020027161</v>
+        <v>0.810000002384186</v>
       </c>
       <c r="F2158" t="n">
         <v>0.804000020027161</v>
@@ -59558,6 +59558,32 @@
         <v>1032</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.591087963</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>3243</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59563,7 +59563,7 @@
     </row>
     <row r="2159">
       <c r="A2159" s="1" t="n">
-        <v>45468.591087963</v>
+        <v>45468.2916666667</v>
       </c>
       <c r="B2159" t="n">
         <v>3243</v>
@@ -59584,6 +59584,32 @@
         <v>1032</v>
       </c>
       <c r="H2159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="n">
+        <v>45469.6275</v>
+      </c>
+      <c r="B2160" t="n">
+        <v>36819</v>
+      </c>
+      <c r="C2160" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H2160" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59589,7 +59589,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6275</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>36819</v>
@@ -59610,6 +59610,32 @@
         <v>1033</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.6356944444</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>99900</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59615,7 +59615,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6356944444</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>99900</v>
@@ -59636,6 +59636,32 @@
         <v>1033</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6313541667</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>5528</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="1035">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3114,6 +3114,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.805999994277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.808000028133392</t>
   </si>
 </sst>
 </file>
@@ -59641,7 +59644,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6313541667</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>5528</v>
@@ -59662,6 +59665,32 @@
         <v>1032</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6295486111</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>43324</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>0.814000010490417</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59670,7 +59670,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6295486111</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>43324</v>
@@ -59691,6 +59691,32 @@
         <v>1034</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.5991319444</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>4643</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>0.811999976634979</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59696,7 +59696,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.5991319444</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>4643</v>
@@ -59717,6 +59717,32 @@
         <v>1034</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6452430556</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>27529</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59722,7 +59722,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.6452430556</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>27529</v>
@@ -59743,6 +59743,32 @@
         <v>1034</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6495138889</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>26560</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>0.804000020027161</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="1036">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3117,6 +3117,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.808000028133392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.811999976634979</t>
   </si>
 </sst>
 </file>
@@ -59748,7 +59751,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.6495138889</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>26560</v>
@@ -59769,6 +59772,32 @@
         <v>1032</v>
       </c>
       <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.6238425926</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>0.811999976634979</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>0.811999976634979</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="1037">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3120,6 +3120,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.811999976634979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.874000012874603</t>
   </si>
 </sst>
 </file>
@@ -59777,7 +59780,7 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n">
-        <v>45478.6238425926</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B2167" t="n">
         <v>45342</v>
@@ -59798,6 +59801,32 @@
         <v>1035</v>
       </c>
       <c r="H2167" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" s="1" t="n">
+        <v>45481.6495486111</v>
+      </c>
+      <c r="B2168" t="n">
+        <v>33785</v>
+      </c>
+      <c r="C2168" t="n">
+        <v>0.878000020980835</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>0.815999984741211</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>0.815999984741211</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>0.874000012874603</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H2168" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="1038">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3123,6 +3123,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.874000012874603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.829999983310699</t>
   </si>
 </sst>
 </file>
@@ -59806,7 +59809,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6495486111</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>33785</v>
@@ -59827,6 +59830,32 @@
         <v>1036</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6494560185</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>7237</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>0.86599999666214</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>0.822000026702881</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>0.86599999666214</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>0.829999983310699</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="1039">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3126,6 +3126,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.829999983310699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.818000018596649</t>
   </si>
 </sst>
 </file>
@@ -59835,7 +59838,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6494560185</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>7237</v>
@@ -59856,6 +59859,32 @@
         <v>1037</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.615</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>49944</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>0.836000025272369</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>0.818000018596649</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>0.832000017166138</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>0.818000018596649</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="1040">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3129,6 +3129,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.818000018596649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836000025272369</t>
   </si>
 </sst>
 </file>
@@ -59864,7 +59867,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.615</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>49944</v>
@@ -59885,6 +59888,32 @@
         <v>1038</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6230555556</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>22108</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>0.837999999523163</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>0.819999992847443</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>0.836000025272369</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59893,7 +59893,7 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.6230555556</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>22108</v>
@@ -59914,6 +59914,32 @@
         <v>1039</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.6440393519</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>22943</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>0.811999976634979</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>0.779999971389771</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>0.791999995708466</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="1041">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3132,6 +3132,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.836000025272369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.810000002384186</t>
   </si>
 </sst>
 </file>
@@ -59919,7 +59922,7 @@
     </row>
     <row r="2172">
       <c r="A2172" s="1" t="n">
-        <v>45485.6440393519</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B2172" t="n">
         <v>22943</v>
@@ -59940,6 +59943,32 @@
         <v>1030</v>
       </c>
       <c r="H2172" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" s="1" t="n">
+        <v>45488.6225231482</v>
+      </c>
+      <c r="B2173" t="n">
+        <v>25875</v>
+      </c>
+      <c r="C2173" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H2173" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59948,7 +59948,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="1" t="n">
-        <v>45488.6225231482</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B2173" t="n">
         <v>25875</v>
@@ -59969,6 +59969,32 @@
         <v>1040</v>
       </c>
       <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.6493865741</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>11946</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H2174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -59974,7 +59974,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6493865741</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>11946</v>
@@ -59995,6 +59995,32 @@
         <v>1033</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.4960185185</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>1545</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>0.810000002384186</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -60000,7 +60000,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="1" t="n">
-        <v>45490.4960185185</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B2175" t="n">
         <v>1545</v>
@@ -60021,6 +60021,32 @@
         <v>1034</v>
       </c>
       <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.6289583333</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>1492</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -60026,7 +60026,7 @@
     </row>
     <row r="2176">
       <c r="A2176" s="1" t="n">
-        <v>45491.6289583333</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B2176" t="n">
         <v>1492</v>
@@ -60047,6 +60047,32 @@
         <v>1033</v>
       </c>
       <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.6422106481</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>15017</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H2177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -60052,7 +60052,7 @@
     </row>
     <row r="2177">
       <c r="A2177" s="1" t="n">
-        <v>45492.6422106481</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B2177" t="n">
         <v>15017</v>
@@ -60073,6 +60073,32 @@
         <v>1034</v>
       </c>
       <c r="H2177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="1" t="n">
+        <v>45495.6380555556</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H2178" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -60078,7 +60078,7 @@
     </row>
     <row r="2178">
       <c r="A2178" s="1" t="n">
-        <v>45495.6380555556</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B2178" t="n">
         <v>1301</v>
@@ -60099,6 +60099,32 @@
         <v>1033</v>
       </c>
       <c r="H2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>45496.6493981481</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>59646</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H2179" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -60104,7 +60104,7 @@
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n">
-        <v>45496.6493981481</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B2179" t="n">
         <v>59646</v>
@@ -60125,6 +60125,32 @@
         <v>1034</v>
       </c>
       <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.6424768518</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>7899</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>0.805999994277954</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>0.808000028133392</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H2180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -60130,7 +60130,7 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n">
-        <v>45497.6424768518</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B2180" t="n">
         <v>7899</v>
@@ -60151,6 +60151,32 @@
         <v>1034</v>
       </c>
       <c r="H2180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" s="1" t="n">
+        <v>45498.4374652778</v>
+      </c>
+      <c r="B2181" t="n">
+        <v>250</v>
+      </c>
+      <c r="C2181" t="n">
+        <v>0.741999983787537</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>0.740000009536743</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>0.740000009536743</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>0.741999983787537</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H2181" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -60156,7 +60156,7 @@
     </row>
     <row r="2181">
       <c r="A2181" s="1" t="n">
-        <v>45498.4374652778</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B2181" t="n">
         <v>250</v>
@@ -60177,6 +60177,32 @@
         <v>1016</v>
       </c>
       <c r="H2181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="1" t="n">
+        <v>45499.6494791667</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>506</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>0.741999983787537</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>0.741999983787537</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H2182" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="1042">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3135,6 +3135,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.810000002384186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.765999972820282</t>
   </si>
 </sst>
 </file>
@@ -60182,7 +60185,7 @@
     </row>
     <row r="2182">
       <c r="A2182" s="1" t="n">
-        <v>45499.6494791667</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B2182" t="n">
         <v>506</v>
@@ -60203,6 +60206,32 @@
         <v>1016</v>
       </c>
       <c r="H2182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" s="1" t="n">
+        <v>45502.5929861111</v>
+      </c>
+      <c r="B2183" t="n">
+        <v>523</v>
+      </c>
+      <c r="C2183" t="n">
+        <v>0.790000021457672</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>0.765999972820282</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>0.765999972820282</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>0.765999972820282</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H2183" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="1043">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3138,6 +3138,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.765999972820282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.769999980926514</t>
   </si>
 </sst>
 </file>
@@ -60211,7 +60214,7 @@
     </row>
     <row r="2183">
       <c r="A2183" s="1" t="n">
-        <v>45502.5929861111</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B2183" t="n">
         <v>523</v>
@@ -60232,6 +60235,32 @@
         <v>1041</v>
       </c>
       <c r="H2183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>45503.3585763889</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>522</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>0.769999980926514</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>0.765999972820282</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>0.765999972820282</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>0.769999980926514</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H2184" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -60240,7 +60240,7 @@
     </row>
     <row r="2184">
       <c r="A2184" s="1" t="n">
-        <v>45503.3585763889</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B2184" t="n">
         <v>522</v>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="1044">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -3141,6 +3141,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.769999980926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.702000021934509</t>
   </si>
 </sst>
 </file>
@@ -60264,6 +60267,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2185">
+      <c r="A2185" s="1" t="n">
+        <v>45504.2916666667</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>0.769999980926514</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>0.769999980926514</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>0.769999980926514</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>0.769999980926514</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45505.6383564815</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>3731</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>0.708000004291534</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>0.698000013828278</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>0.698000013828278</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>0.702000021934509</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H2186" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -60295,7 +60295,7 @@
     </row>
     <row r="2186">
       <c r="A2186" s="1" t="n">
-        <v>45505.6383564815</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B2186" t="n">
         <v>3731</v>
@@ -60316,6 +60316,32 @@
         <v>1043</v>
       </c>
       <c r="H2186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" s="1" t="n">
+        <v>45506.6090740741</v>
+      </c>
+      <c r="B2187" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C2187" t="n">
+        <v>0.709999978542328</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>0.702000021934509</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H2187" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GO.MI.xlsx
+++ b/data/GO.MI.xlsx
@@ -60321,7 +60321,7 @@
     </row>
     <row r="2187">
       <c r="A2187" s="1" t="n">
-        <v>45506.6090740741</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B2187" t="n">
         <v>1018</v>
